--- a/WorkingFolder/k_NN_5.xlsx
+++ b/WorkingFolder/k_NN_5.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,7 +426,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>RightNegative: 0, FalseNegative: 1, RightPositive: 5,FalsePositive: 3)</t>
+          <t>[[0 3 0 0 0 1]
+ [1 5 1 0 0 3]
+ [0 3 0 0 0 0]
+ [0 2 1 0 0 0]
+ [0 3 0 0 0 0]
+ [0 2 0 0 0 1]]</t>
         </is>
       </c>
     </row>
@@ -434,7 +439,7 @@
       <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
-          <t>rest_v_all_dict</t>
+          <t>complete_no_cd_dict</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -442,18 +447,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 4}</t>
+          <t>{'n_neighbors': 6}</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>86.8</v>
+        <v>29.2</v>
       </c>
       <c r="F3" t="n">
-        <v>88.5</v>
+        <v>25</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>RightNegative: 23, FalseNegative: 3, RightPositive: 0,FalsePositive: 0)</t>
+          <t>[[2 1 0 1 0]
+ [1 2 0 0 0]
+ [1 1 0 1 0]
+ [3 0 0 0 0]
+ [2 0 1 0 0]]</t>
         </is>
       </c>
     </row>
@@ -461,7 +470,7 @@
       <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
-          <t>stress_v_all_dict</t>
+          <t>rest_v_all_dict</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -469,18 +478,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 12}</t>
+          <t>{'n_neighbors': 4}</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>75</v>
+        <v>86.8</v>
       </c>
       <c r="F4" t="n">
-        <v>76.90000000000001</v>
+        <v>88.5</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>RightNegative: 20, FalseNegative: 6, RightPositive: 0,FalsePositive: 0)</t>
+          <t>[[23  0]
+ [ 3  0]]</t>
         </is>
       </c>
     </row>
@@ -488,7 +498,7 @@
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
-          <t>stress_v_rest_dict</t>
+          <t>stress_v_all_dict</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -496,18 +506,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 10}</t>
+          <t>{'n_neighbors': 12}</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>71.39999999999999</v>
+        <v>75</v>
       </c>
       <c r="F5" t="n">
-        <v>60</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>RightNegative: 1, FalseNegative: 2, RightPositive: 5,FalsePositive: 2)</t>
+          <t>[[20  0]
+ [ 6  0]]</t>
         </is>
       </c>
     </row>
@@ -515,7 +526,7 @@
       <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
-          <t>stress_v_stress_dict</t>
+          <t>stress_v_rest_dict</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -523,18 +534,19 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 1}</t>
+          <t>{'n_neighbors': 10}</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>83.3</v>
+        <v>71.39999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>57.09999999999999</v>
+        <v>60</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>RightNegative: 1, FalseNegative: 1, RightPositive: 3,FalsePositive: 2)</t>
+          <t>[[1 2]
+ [2 5]]</t>
         </is>
       </c>
     </row>
@@ -542,7 +554,7 @@
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
-          <t>emotion_v_all_dict</t>
+          <t>stress_v_stress_dict</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -550,18 +562,19 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 2}</t>
+          <t>{'n_neighbors': 1}</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>75</v>
+        <v>83.3</v>
       </c>
       <c r="F7" t="n">
-        <v>69.19999999999999</v>
+        <v>57.09999999999999</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>RightNegative: 18, FalseNegative: 7, RightPositive: 0,FalsePositive: 1)</t>
+          <t>[[1 2]
+ [1 3]]</t>
         </is>
       </c>
     </row>
@@ -569,7 +582,7 @@
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
-          <t>emotion_v_rest_dict</t>
+          <t>emotion_v_all_dict</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -577,18 +590,19 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 3}</t>
+          <t>{'n_neighbors': 2}</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F8" t="n">
-        <v>50</v>
+        <v>69.19999999999999</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>RightNegative: 0, FalseNegative: 2, RightPositive: 5,FalsePositive: 3)</t>
+          <t>[[18  1]
+ [ 7  0]]</t>
         </is>
       </c>
     </row>
@@ -596,57 +610,55 @@
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
+          <t>emotion_v_rest_dict</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>{'n_neighbors': 3}</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>69</v>
+      </c>
+      <c r="F9" t="n">
+        <v>50</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>[[0 3]
+ [2 5]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>emotion_v_emotion_dict</t>
         </is>
       </c>
-      <c r="C9" t="n">
-        <v>5</v>
-      </c>
-      <c r="D9" t="inlineStr">
+      <c r="C10" t="n">
+        <v>5</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>{'n_neighbors': 5}</t>
         </is>
       </c>
-      <c r="E9" t="n">
+      <c r="E10" t="n">
         <v>47.4</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F10" t="n">
         <v>57.09999999999999</v>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>RightNegative: 2, FalseNegative: 1, RightPositive: 2,FalsePositive: 2)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>_no_ma</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>complete_dict</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>5</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>{'n_neighbors': 11}</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>36.8</v>
-      </c>
-      <c r="F10" t="n">
-        <v>23.1</v>
-      </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>RightNegative: 0, FalseNegative: 1, RightPositive: 5,FalsePositive: 3)</t>
+          <t>[[2 2]
+ [1 2]]</t>
         </is>
       </c>
     </row>
@@ -658,7 +670,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>rest_v_all_dict</t>
+          <t>complete_dict</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -666,18 +678,23 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 4}</t>
+          <t>{'n_neighbors': 11}</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>86.8</v>
+        <v>36.8</v>
       </c>
       <c r="F11" t="n">
-        <v>88.5</v>
+        <v>23.1</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>RightNegative: 23, FalseNegative: 3, RightPositive: 0,FalsePositive: 0)</t>
+          <t>[[0 3 0 0 0 1]
+ [1 5 1 0 0 3]
+ [0 3 0 0 0 0]
+ [0 2 1 0 0 0]
+ [0 3 0 0 0 0]
+ [0 2 0 0 0 1]]</t>
         </is>
       </c>
     </row>
@@ -689,7 +706,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>stress_v_all_dict</t>
+          <t>complete_no_cd_dict</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -697,18 +714,22 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 12}</t>
+          <t>{'n_neighbors': 6}</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>75</v>
+        <v>29.2</v>
       </c>
       <c r="F12" t="n">
-        <v>76.90000000000001</v>
+        <v>25</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>RightNegative: 20, FalseNegative: 6, RightPositive: 0,FalsePositive: 0)</t>
+          <t>[[2 1 0 1 0]
+ [1 2 0 0 0]
+ [1 1 0 1 0]
+ [3 0 0 0 0]
+ [2 0 1 0 0]]</t>
         </is>
       </c>
     </row>
@@ -720,7 +741,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>stress_v_rest_dict</t>
+          <t>rest_v_all_dict</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -728,18 +749,19 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 10}</t>
+          <t>{'n_neighbors': 4}</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>71.39999999999999</v>
+        <v>86.8</v>
       </c>
       <c r="F13" t="n">
-        <v>60</v>
+        <v>88.5</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>RightNegative: 1, FalseNegative: 2, RightPositive: 5,FalsePositive: 2)</t>
+          <t>[[23  0]
+ [ 3  0]]</t>
         </is>
       </c>
     </row>
@@ -751,7 +773,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>stress_v_stress_dict</t>
+          <t>stress_v_all_dict</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -759,18 +781,19 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 1}</t>
+          <t>{'n_neighbors': 12}</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>83.3</v>
+        <v>75</v>
       </c>
       <c r="F14" t="n">
-        <v>57.09999999999999</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>RightNegative: 1, FalseNegative: 1, RightPositive: 3,FalsePositive: 2)</t>
+          <t>[[20  0]
+ [ 6  0]]</t>
         </is>
       </c>
     </row>
@@ -782,7 +805,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>emotion_v_all_dict</t>
+          <t>stress_v_rest_dict</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -790,18 +813,19 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 2}</t>
+          <t>{'n_neighbors': 10}</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>75</v>
+        <v>71.39999999999999</v>
       </c>
       <c r="F15" t="n">
-        <v>69.19999999999999</v>
+        <v>60</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>RightNegative: 18, FalseNegative: 7, RightPositive: 0,FalsePositive: 1)</t>
+          <t>[[1 2]
+ [2 5]]</t>
         </is>
       </c>
     </row>
@@ -813,7 +837,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>emotion_v_rest_dict</t>
+          <t>stress_v_stress_dict</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -821,18 +845,19 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 3}</t>
+          <t>{'n_neighbors': 1}</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>69</v>
+        <v>83.3</v>
       </c>
       <c r="F16" t="n">
-        <v>50</v>
+        <v>57.09999999999999</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>RightNegative: 0, FalseNegative: 2, RightPositive: 5,FalsePositive: 3)</t>
+          <t>[[1 2]
+ [1 3]]</t>
         </is>
       </c>
     </row>
@@ -844,7 +869,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>emotion_v_emotion_dict</t>
+          <t>emotion_v_all_dict</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -852,30 +877,31 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 5}</t>
+          <t>{'n_neighbors': 2}</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>47.4</v>
+        <v>75</v>
       </c>
       <c r="F17" t="n">
-        <v>57.09999999999999</v>
+        <v>69.19999999999999</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>RightNegative: 2, FalseNegative: 1, RightPositive: 2,FalsePositive: 2)</t>
+          <t>[[18  1]
+ [ 7  0]]</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>_no_zf</t>
+          <t>_no_ma</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>complete_dict</t>
+          <t>emotion_v_rest_dict</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -883,30 +909,31 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 11}</t>
+          <t>{'n_neighbors': 3}</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>36.8</v>
+        <v>69</v>
       </c>
       <c r="F18" t="n">
-        <v>23.1</v>
+        <v>50</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>RightNegative: 0, FalseNegative: 1, RightPositive: 5,FalsePositive: 3)</t>
+          <t>[[0 3]
+ [2 5]]</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>_no_zf</t>
+          <t>_no_ma</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>rest_v_all_dict</t>
+          <t>emotion_v_emotion_dict</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -914,18 +941,19 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 4}</t>
+          <t>{'n_neighbors': 5}</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>86.8</v>
+        <v>47.4</v>
       </c>
       <c r="F19" t="n">
-        <v>88.5</v>
+        <v>57.09999999999999</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>RightNegative: 23, FalseNegative: 3, RightPositive: 0,FalsePositive: 0)</t>
+          <t>[[2 2]
+ [1 2]]</t>
         </is>
       </c>
     </row>
@@ -937,7 +965,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>stress_v_all_dict</t>
+          <t>complete_dict</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -945,18 +973,23 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 12}</t>
+          <t>{'n_neighbors': 11}</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>75</v>
+        <v>36.8</v>
       </c>
       <c r="F20" t="n">
-        <v>76.90000000000001</v>
+        <v>23.1</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>RightNegative: 20, FalseNegative: 6, RightPositive: 0,FalsePositive: 0)</t>
+          <t>[[0 3 0 0 0 1]
+ [1 5 1 0 0 3]
+ [0 3 0 0 0 0]
+ [0 2 1 0 0 0]
+ [0 3 0 0 0 0]
+ [0 2 0 0 0 1]]</t>
         </is>
       </c>
     </row>
@@ -968,7 +1001,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>stress_v_rest_dict</t>
+          <t>complete_no_cd_dict</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -976,18 +1009,22 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 10}</t>
+          <t>{'n_neighbors': 6}</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>71.39999999999999</v>
+        <v>29.2</v>
       </c>
       <c r="F21" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>RightNegative: 1, FalseNegative: 2, RightPositive: 5,FalsePositive: 2)</t>
+          <t>[[2 1 0 1 0]
+ [1 2 0 0 0]
+ [1 1 0 1 0]
+ [3 0 0 0 0]
+ [2 0 1 0 0]]</t>
         </is>
       </c>
     </row>
@@ -999,7 +1036,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>stress_v_stress_dict</t>
+          <t>rest_v_all_dict</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -1007,18 +1044,19 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 1}</t>
+          <t>{'n_neighbors': 4}</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>83.3</v>
+        <v>86.8</v>
       </c>
       <c r="F22" t="n">
-        <v>57.09999999999999</v>
+        <v>88.5</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>RightNegative: 1, FalseNegative: 1, RightPositive: 3,FalsePositive: 2)</t>
+          <t>[[23  0]
+ [ 3  0]]</t>
         </is>
       </c>
     </row>
@@ -1030,7 +1068,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>emotion_v_all_dict</t>
+          <t>stress_v_all_dict</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -1038,18 +1076,19 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 2}</t>
+          <t>{'n_neighbors': 12}</t>
         </is>
       </c>
       <c r="E23" t="n">
         <v>75</v>
       </c>
       <c r="F23" t="n">
-        <v>69.19999999999999</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>RightNegative: 18, FalseNegative: 7, RightPositive: 0,FalsePositive: 1)</t>
+          <t>[[20  0]
+ [ 6  0]]</t>
         </is>
       </c>
     </row>
@@ -1061,7 +1100,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>emotion_v_rest_dict</t>
+          <t>stress_v_rest_dict</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1069,18 +1108,19 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 3}</t>
+          <t>{'n_neighbors': 10}</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>69</v>
+        <v>71.39999999999999</v>
       </c>
       <c r="F24" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>RightNegative: 0, FalseNegative: 2, RightPositive: 5,FalsePositive: 3)</t>
+          <t>[[1 2]
+ [2 5]]</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1132,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>emotion_v_emotion_dict</t>
+          <t>stress_v_stress_dict</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -1100,30 +1140,31 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 5}</t>
+          <t>{'n_neighbors': 1}</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>47.4</v>
+        <v>83.3</v>
       </c>
       <c r="F25" t="n">
         <v>57.09999999999999</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>RightNegative: 2, FalseNegative: 1, RightPositive: 2,FalsePositive: 2)</t>
+          <t>[[1 2]
+ [1 3]]</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>_bvp_sel_only</t>
+          <t>_no_zf</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>complete_dict</t>
+          <t>emotion_v_all_dict</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -1131,30 +1172,31 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 11}</t>
+          <t>{'n_neighbors': 2}</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>36.8</v>
+        <v>75</v>
       </c>
       <c r="F26" t="n">
-        <v>23.1</v>
+        <v>69.19999999999999</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>RightNegative: 0, FalseNegative: 1, RightPositive: 5,FalsePositive: 3)</t>
+          <t>[[18  1]
+ [ 7  0]]</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>_bvp_sel_only</t>
+          <t>_no_zf</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>rest_v_all_dict</t>
+          <t>emotion_v_rest_dict</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1162,30 +1204,31 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 4}</t>
+          <t>{'n_neighbors': 3}</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>86.8</v>
+        <v>69</v>
       </c>
       <c r="F27" t="n">
-        <v>88.5</v>
+        <v>50</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>RightNegative: 23, FalseNegative: 3, RightPositive: 0,FalsePositive: 0)</t>
+          <t>[[0 3]
+ [2 5]]</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>_bvp_sel_only</t>
+          <t>_no_zf</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>stress_v_all_dict</t>
+          <t>emotion_v_emotion_dict</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1193,18 +1236,19 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 12}</t>
+          <t>{'n_neighbors': 5}</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>75</v>
+        <v>47.4</v>
       </c>
       <c r="F28" t="n">
-        <v>76.90000000000001</v>
+        <v>57.09999999999999</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>RightNegative: 20, FalseNegative: 6, RightPositive: 0,FalsePositive: 0)</t>
+          <t>[[2 2]
+ [1 2]]</t>
         </is>
       </c>
     </row>
@@ -1216,7 +1260,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>stress_v_rest_dict</t>
+          <t>complete_dict</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1224,18 +1268,23 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 10}</t>
+          <t>{'n_neighbors': 11}</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>71.39999999999999</v>
+        <v>36.8</v>
       </c>
       <c r="F29" t="n">
-        <v>60</v>
+        <v>23.1</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>RightNegative: 1, FalseNegative: 2, RightPositive: 5,FalsePositive: 2)</t>
+          <t>[[0 3 0 0 0 1]
+ [1 5 1 0 0 3]
+ [0 3 0 0 0 0]
+ [0 2 1 0 0 0]
+ [0 3 0 0 0 0]
+ [0 2 0 0 0 1]]</t>
         </is>
       </c>
     </row>
@@ -1247,7 +1296,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>stress_v_stress_dict</t>
+          <t>complete_no_cd_dict</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1255,18 +1304,22 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 1}</t>
+          <t>{'n_neighbors': 6}</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>83.3</v>
+        <v>29.2</v>
       </c>
       <c r="F30" t="n">
-        <v>57.09999999999999</v>
+        <v>25</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>RightNegative: 1, FalseNegative: 1, RightPositive: 3,FalsePositive: 2)</t>
+          <t>[[2 1 0 1 0]
+ [1 2 0 0 0]
+ [1 1 0 1 0]
+ [3 0 0 0 0]
+ [2 0 1 0 0]]</t>
         </is>
       </c>
     </row>
@@ -1278,7 +1331,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>emotion_v_all_dict</t>
+          <t>rest_v_all_dict</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1286,18 +1339,19 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 2}</t>
+          <t>{'n_neighbors': 4}</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>75</v>
+        <v>86.8</v>
       </c>
       <c r="F31" t="n">
-        <v>69.19999999999999</v>
+        <v>88.5</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>RightNegative: 18, FalseNegative: 7, RightPositive: 0,FalsePositive: 1)</t>
+          <t>[[23  0]
+ [ 3  0]]</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1363,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>emotion_v_rest_dict</t>
+          <t>stress_v_all_dict</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1317,18 +1371,19 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 3}</t>
+          <t>{'n_neighbors': 12}</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F32" t="n">
-        <v>50</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>RightNegative: 0, FalseNegative: 2, RightPositive: 5,FalsePositive: 3)</t>
+          <t>[[20  0]
+ [ 6  0]]</t>
         </is>
       </c>
     </row>
@@ -1340,7 +1395,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>emotion_v_emotion_dict</t>
+          <t>stress_v_rest_dict</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1348,30 +1403,31 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 5}</t>
+          <t>{'n_neighbors': 10}</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>47.4</v>
+        <v>71.39999999999999</v>
       </c>
       <c r="F33" t="n">
-        <v>57.09999999999999</v>
+        <v>60</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>RightNegative: 2, FalseNegative: 1, RightPositive: 2,FalsePositive: 2)</t>
+          <t>[[1 2]
+ [2 5]]</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>_bvp_only</t>
+          <t>_bvp_sel_only</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>complete_dict</t>
+          <t>stress_v_stress_dict</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1379,30 +1435,31 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 11}</t>
+          <t>{'n_neighbors': 1}</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>36.8</v>
+        <v>83.3</v>
       </c>
       <c r="F34" t="n">
-        <v>23.1</v>
+        <v>57.09999999999999</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>RightNegative: 0, FalseNegative: 1, RightPositive: 5,FalsePositive: 3)</t>
+          <t>[[1 2]
+ [1 3]]</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>_bvp_only</t>
+          <t>_bvp_sel_only</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>rest_v_all_dict</t>
+          <t>emotion_v_all_dict</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1410,30 +1467,31 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 4}</t>
+          <t>{'n_neighbors': 2}</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>86.8</v>
+        <v>75</v>
       </c>
       <c r="F35" t="n">
-        <v>88.5</v>
+        <v>69.19999999999999</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>RightNegative: 23, FalseNegative: 3, RightPositive: 0,FalsePositive: 0)</t>
+          <t>[[18  1]
+ [ 7  0]]</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>_bvp_only</t>
+          <t>_bvp_sel_only</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>stress_v_all_dict</t>
+          <t>emotion_v_rest_dict</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1441,30 +1499,31 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 12}</t>
+          <t>{'n_neighbors': 3}</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F36" t="n">
-        <v>76.90000000000001</v>
+        <v>50</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>RightNegative: 20, FalseNegative: 6, RightPositive: 0,FalsePositive: 0)</t>
+          <t>[[0 3]
+ [2 5]]</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>_bvp_only</t>
+          <t>_bvp_sel_only</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>stress_v_rest_dict</t>
+          <t>emotion_v_emotion_dict</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1472,30 +1531,31 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 10}</t>
+          <t>{'n_neighbors': 5}</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>71.39999999999999</v>
+        <v>47.4</v>
       </c>
       <c r="F37" t="n">
-        <v>60</v>
+        <v>57.09999999999999</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>RightNegative: 1, FalseNegative: 2, RightPositive: 5,FalsePositive: 2)</t>
+          <t>[[2 2]
+ [1 2]]</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>_bvp_only</t>
+          <t>_gsr_only</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>stress_v_stress_dict</t>
+          <t>complete_dict</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1503,30 +1563,35 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 1}</t>
+          <t>{'n_neighbors': 12}</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>83.3</v>
+        <v>43.4</v>
       </c>
       <c r="F38" t="n">
-        <v>57.09999999999999</v>
+        <v>34.59999999999999</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>RightNegative: 1, FalseNegative: 1, RightPositive: 3,FalsePositive: 2)</t>
+          <t>[[1 3 0 0 0 0]
+ [0 6 0 1 3 0]
+ [0 3 0 0 0 0]
+ [1 2 0 0 0 0]
+ [0 1 0 0 2 0]
+ [0 0 0 0 3 0]]</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>_bvp_only</t>
+          <t>_gsr_only</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>emotion_v_all_dict</t>
+          <t>complete_no_cd_dict</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1534,30 +1599,34 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 2}</t>
+          <t>{'n_neighbors': 3}</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>75</v>
+        <v>27.1</v>
       </c>
       <c r="F39" t="n">
-        <v>69.19999999999999</v>
+        <v>25</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>RightNegative: 18, FalseNegative: 7, RightPositive: 0,FalsePositive: 1)</t>
+          <t>[[2 2 0 0 0]
+ [0 1 2 0 0]
+ [1 2 0 0 0]
+ [2 1 0 0 0]
+ [0 1 0 1 1]]</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>_bvp_only</t>
+          <t>_gsr_only</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>emotion_v_rest_dict</t>
+          <t>rest_v_all_dict</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1565,30 +1634,31 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 3}</t>
+          <t>{'n_neighbors': 1}</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>69</v>
+        <v>90.8</v>
       </c>
       <c r="F40" t="n">
-        <v>50</v>
+        <v>96.2</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>RightNegative: 0, FalseNegative: 2, RightPositive: 5,FalsePositive: 3)</t>
+          <t>[[22  1]
+ [ 0  3]]</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>_bvp_only</t>
+          <t>_gsr_only</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>emotion_v_emotion_dict</t>
+          <t>stress_v_all_dict</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1596,18 +1666,19 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 5}</t>
+          <t>{'n_neighbors': 11}</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>47.4</v>
+        <v>86.8</v>
       </c>
       <c r="F41" t="n">
-        <v>57.09999999999999</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>RightNegative: 2, FalseNegative: 1, RightPositive: 2,FalsePositive: 2)</t>
+          <t>[[17  3]
+ [ 1  5]]</t>
         </is>
       </c>
     </row>
@@ -1619,7 +1690,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>complete_dict</t>
+          <t>stress_v_rest_dict</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1627,18 +1698,19 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 12}</t>
+          <t>{'n_neighbors': 1}</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>43.4</v>
+        <v>96.39999999999999</v>
       </c>
       <c r="F42" t="n">
-        <v>34.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>RightNegative: 1, FalseNegative: 0, RightPositive: 6,FalsePositive: 3)</t>
+          <t>[[3 0]
+ [0 7]]</t>
         </is>
       </c>
     </row>
@@ -1650,7 +1722,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>rest_v_all_dict</t>
+          <t>stress_v_stress_dict</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1658,18 +1730,19 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 1}</t>
+          <t>{'n_neighbors': 10}</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>90.8</v>
+        <v>50</v>
       </c>
       <c r="F43" t="n">
-        <v>96.2</v>
+        <v>42.9</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>RightNegative: 22, FalseNegative: 0, RightPositive: 3,FalsePositive: 1)</t>
+          <t>[[3 0]
+ [4 0]]</t>
         </is>
       </c>
     </row>
@@ -1681,7 +1754,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>stress_v_all_dict</t>
+          <t>emotion_v_all_dict</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1689,18 +1762,19 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 11}</t>
+          <t>{'n_neighbors': 8}</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>86.8</v>
+        <v>76.3</v>
       </c>
       <c r="F44" t="n">
-        <v>84.59999999999999</v>
+        <v>61.5</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>RightNegative: 17, FalseNegative: 1, RightPositive: 5,FalsePositive: 3)</t>
+          <t>[[16  3]
+ [ 7  0]]</t>
         </is>
       </c>
     </row>
@@ -1712,7 +1786,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>stress_v_rest_dict</t>
+          <t>emotion_v_rest_dict</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1724,14 +1798,15 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>96.39999999999999</v>
+        <v>89.7</v>
       </c>
       <c r="F45" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>RightNegative: 3, FalseNegative: 0, RightPositive: 7,FalsePositive: 0)</t>
+          <t>[[2 1]
+ [1 6]]</t>
         </is>
       </c>
     </row>
@@ -1743,7 +1818,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>stress_v_stress_dict</t>
+          <t>emotion_v_emotion_dict</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1751,30 +1826,31 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 10}</t>
+          <t>{'n_neighbors': 4}</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>50</v>
+        <v>63.2</v>
       </c>
       <c r="F46" t="n">
-        <v>42.9</v>
+        <v>28.6</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>RightNegative: 3, FalseNegative: 4, RightPositive: 0,FalsePositive: 0)</t>
+          <t>[[2 2]
+ [3 0]]</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>_gsr_only</t>
+          <t>_temp_only</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>emotion_v_all_dict</t>
+          <t>complete_dict</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -1782,30 +1858,35 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 8}</t>
+          <t>{'n_neighbors': 3}</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>76.3</v>
+        <v>31.6</v>
       </c>
       <c r="F47" t="n">
-        <v>61.5</v>
+        <v>42.3</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>RightNegative: 16, FalseNegative: 7, RightPositive: 0,FalsePositive: 3)</t>
+          <t>[[4 0 0 0 0 0]
+ [2 7 1 0 0 0]
+ [1 2 0 0 0 0]
+ [0 3 0 0 0 0]
+ [2 0 1 0 0 0]
+ [0 2 0 0 1 0]]</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>_gsr_only</t>
+          <t>_temp_only</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>emotion_v_rest_dict</t>
+          <t>complete_no_cd_dict</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -1813,30 +1894,34 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 1}</t>
+          <t>{'n_neighbors': 7}</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>89.7</v>
+        <v>18.8</v>
       </c>
       <c r="F48" t="n">
-        <v>80</v>
+        <v>18.8</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>RightNegative: 2, FalseNegative: 1, RightPositive: 6,FalsePositive: 1)</t>
+          <t>[[2 1 1 0 0]
+ [0 1 2 0 0]
+ [1 1 0 0 1]
+ [2 1 0 0 0]
+ [2 1 0 0 0]]</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>_gsr_only</t>
+          <t>_temp_only</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>emotion_v_emotion_dict</t>
+          <t>rest_v_all_dict</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -1848,14 +1933,15 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>63.2</v>
+        <v>88.2</v>
       </c>
       <c r="F49" t="n">
-        <v>28.6</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>RightNegative: 2, FalseNegative: 3, RightPositive: 0,FalsePositive: 2)</t>
+          <t>[[22  1]
+ [ 3  0]]</t>
         </is>
       </c>
     </row>
@@ -1867,7 +1953,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>complete_dict</t>
+          <t>stress_v_all_dict</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -1875,18 +1961,19 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 3}</t>
+          <t>{'n_neighbors': 10}</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>31.6</v>
+        <v>75</v>
       </c>
       <c r="F50" t="n">
-        <v>42.3</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>RightNegative: 4, FalseNegative: 2, RightPositive: 7,FalsePositive: 0)</t>
+          <t>[[20  0]
+ [ 6  0]]</t>
         </is>
       </c>
     </row>
@@ -1898,7 +1985,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>rest_v_all_dict</t>
+          <t>stress_v_rest_dict</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -1906,18 +1993,19 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 4}</t>
+          <t>{'n_neighbors': 8}</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>88.2</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F51" t="n">
-        <v>84.59999999999999</v>
+        <v>60</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>RightNegative: 22, FalseNegative: 3, RightPositive: 0,FalsePositive: 1)</t>
+          <t>[[0 3]
+ [1 6]]</t>
         </is>
       </c>
     </row>
@@ -1929,7 +2017,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>stress_v_all_dict</t>
+          <t>stress_v_stress_dict</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -1937,18 +2025,19 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 10}</t>
+          <t>{'n_neighbors': 11}</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>75</v>
+        <v>61.1</v>
       </c>
       <c r="F52" t="n">
-        <v>76.90000000000001</v>
+        <v>28.6</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>RightNegative: 20, FalseNegative: 6, RightPositive: 0,FalsePositive: 0)</t>
+          <t>[[1 2]
+ [3 1]]</t>
         </is>
       </c>
     </row>
@@ -1960,7 +2049,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>stress_v_rest_dict</t>
+          <t>emotion_v_all_dict</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -1968,18 +2057,19 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 8}</t>
+          <t>{'n_neighbors': 6}</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>67.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="F53" t="n">
-        <v>60</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>RightNegative: 0, FalseNegative: 1, RightPositive: 6,FalsePositive: 3)</t>
+          <t>[[19  0]
+ [ 7  0]]</t>
         </is>
       </c>
     </row>
@@ -1991,7 +2081,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>stress_v_stress_dict</t>
+          <t>emotion_v_rest_dict</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -1999,18 +2089,19 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 11}</t>
+          <t>{'n_neighbors': 3}</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>61.1</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="F54" t="n">
-        <v>28.6</v>
+        <v>80</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>RightNegative: 1, FalseNegative: 3, RightPositive: 1,FalsePositive: 2)</t>
+          <t>[[3 0]
+ [2 5]]</t>
         </is>
       </c>
     </row>
@@ -2022,7 +2113,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>emotion_v_all_dict</t>
+          <t>emotion_v_emotion_dict</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -2030,30 +2121,31 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 6}</t>
+          <t>{'n_neighbors': 11}</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>75</v>
+        <v>63.2</v>
       </c>
       <c r="F55" t="n">
-        <v>73.09999999999999</v>
+        <v>42.9</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>RightNegative: 19, FalseNegative: 7, RightPositive: 0,FalsePositive: 0)</t>
+          <t>[[2 2]
+ [2 1]]</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>_temp_only</t>
+          <t>_simple</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>emotion_v_rest_dict</t>
+          <t>complete_dict</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -2061,30 +2153,35 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 3}</t>
+          <t>{'n_neighbors': 9}</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>75.90000000000001</v>
+        <v>40.8</v>
       </c>
       <c r="F56" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>RightNegative: 3, FalseNegative: 2, RightPositive: 5,FalsePositive: 0)</t>
+          <t>[[0 3 0 0 0 1]
+ [1 9 0 0 0 0]
+ [0 2 0 0 0 1]
+ [0 3 0 0 0 0]
+ [0 0 0 0 3 0]
+ [0 1 0 0 1 1]]</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>_temp_only</t>
+          <t>_simple</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>emotion_v_emotion_dict</t>
+          <t>complete_no_cd_dict</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -2092,18 +2189,22 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 11}</t>
+          <t>{'n_neighbors': 4}</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>63.2</v>
+        <v>33.3</v>
       </c>
       <c r="F57" t="n">
-        <v>42.9</v>
+        <v>37.5</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>RightNegative: 2, FalseNegative: 2, RightPositive: 1,FalsePositive: 2)</t>
+          <t>[[2 1 0 1 0]
+ [1 1 1 0 0]
+ [0 2 1 0 0]
+ [0 0 1 1 1]
+ [0 0 1 1 1]]</t>
         </is>
       </c>
     </row>
@@ -2115,7 +2216,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>complete_dict</t>
+          <t>rest_v_all_dict</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -2123,18 +2224,19 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 10}</t>
+          <t>{'n_neighbors': 3}</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>35.5</v>
+        <v>86.8</v>
       </c>
       <c r="F58" t="n">
-        <v>50</v>
+        <v>88.5</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>RightNegative: 1, FalseNegative: 0, RightPositive: 10,FalsePositive: 3)</t>
+          <t>[[23  0]
+ [ 3  0]]</t>
         </is>
       </c>
     </row>
@@ -2146,7 +2248,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>rest_v_all_dict</t>
+          <t>stress_v_all_dict</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -2154,18 +2256,19 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 3}</t>
+          <t>{'n_neighbors': 5}</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>86.8</v>
+        <v>88.2</v>
       </c>
       <c r="F59" t="n">
-        <v>84.59999999999999</v>
+        <v>92.30000000000001</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>RightNegative: 22, FalseNegative: 3, RightPositive: 0,FalsePositive: 1)</t>
+          <t>[[20  0]
+ [ 2  4]]</t>
         </is>
       </c>
     </row>
@@ -2177,7 +2280,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>stress_v_all_dict</t>
+          <t>stress_v_rest_dict</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -2185,18 +2288,19 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 5}</t>
+          <t>{'n_neighbors': 8}</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>85.5</v>
+        <v>85.7</v>
       </c>
       <c r="F60" t="n">
-        <v>84.59999999999999</v>
+        <v>70</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>RightNegative: 19, FalseNegative: 3, RightPositive: 3,FalsePositive: 1)</t>
+          <t>[[2 1]
+ [2 5]]</t>
         </is>
       </c>
     </row>
@@ -2208,7 +2312,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>stress_v_rest_dict</t>
+          <t>stress_v_stress_dict</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -2216,18 +2320,19 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 4}</t>
+          <t>{'n_neighbors': 11}</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>82.09999999999999</v>
+        <v>83.3</v>
       </c>
       <c r="F61" t="n">
-        <v>50</v>
+        <v>57.09999999999999</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>RightNegative: 2, FalseNegative: 4, RightPositive: 3,FalsePositive: 1)</t>
+          <t>[[2 1]
+ [2 2]]</t>
         </is>
       </c>
     </row>
@@ -2239,7 +2344,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>stress_v_stress_dict</t>
+          <t>emotion_v_all_dict</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -2247,18 +2352,19 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 3}</t>
+          <t>{'n_neighbors': 4}</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>83.3</v>
+        <v>76.3</v>
       </c>
       <c r="F62" t="n">
-        <v>28.6</v>
+        <v>61.5</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>RightNegative: 1, FalseNegative: 3, RightPositive: 1,FalsePositive: 2)</t>
+          <t>[[16  3]
+ [ 7  0]]</t>
         </is>
       </c>
     </row>
@@ -2270,7 +2376,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>emotion_v_all_dict</t>
+          <t>emotion_v_rest_dict</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -2278,18 +2384,19 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 6}</t>
+          <t>{'n_neighbors': 7}</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>75</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="F63" t="n">
-        <v>73.09999999999999</v>
+        <v>60</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>RightNegative: 19, FalseNegative: 7, RightPositive: 0,FalsePositive: 0)</t>
+          <t>[[0 3]
+ [1 6]]</t>
         </is>
       </c>
     </row>
@@ -2301,7 +2408,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>emotion_v_rest_dict</t>
+          <t>emotion_v_emotion_dict</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -2309,49 +2416,19 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 4}</t>
+          <t>{'n_neighbors': 3}</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>69</v>
+        <v>52.6</v>
       </c>
       <c r="F64" t="n">
-        <v>40</v>
+        <v>28.6</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>RightNegative: 2, FalseNegative: 5, RightPositive: 2,FalsePositive: 1)</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>_simple</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>emotion_v_emotion_dict</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>5</v>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>{'n_neighbors': 3}</t>
-        </is>
-      </c>
-      <c r="E65" t="n">
-        <v>63.2</v>
-      </c>
-      <c r="F65" t="n">
-        <v>71.39999999999999</v>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>RightNegative: 2, FalseNegative: 0, RightPositive: 3,FalsePositive: 2)</t>
+          <t>[[0 4]
+ [1 2]]</t>
         </is>
       </c>
     </row>
